--- a/medicine/Pharmacie/Classification_ATC/Classification_ATC.xlsx
+++ b/medicine/Pharmacie/Classification_ATC/Classification_ATC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Système de classification anatomique, thérapeutique et chimique (en anglais : Anatomical Therapeutic Chemical (ATC) Classification System) est utilisé pour classer les médicaments. C'est le Collaborating Centre for Drug Statistics Methodology de l'Organisation mondiale de la santé (OMS) qui le contrôle. Les médicaments sont divisés en groupes selon l'organe ou le système sur lequel ils agissent ou leurs caractéristiques thérapeutiques et chimiques.
 La première publication remonte à 1976. Le système repose sur la Classification anatomique (en anglais : Anatomical Classification) développée par l'European Pharmaceutical Market Research Association (EPhMRA) et le Pharmaceutical Business Intelligence and Research Group (PBIRG).
@@ -513,11 +525,13 @@
           <t>Différents niveaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification ATC repose sur cinq niveaux de classement qui correspondent aux organes (ou systèmes d'organes) cibles, et aux propriétés thérapeutiques, pharmacologiques et chimiques des différents produits. La forme générale du code d'une molécule est LCCLLCC, où L représente une lettre et C un chiffre (exemple : A01AA01). Chaque lettre et chaque doublet de chiffres représente un niveau successif.
-Le premier niveau (première lettre) définit le groupe anatomique parmi 14 différents. Le deuxième niveau (deux premiers chiffres) donne le sous-groupe pharmacologique ou thérapeutique principal. Les troisième et quatrième niveaux (deuxième et troisième lettres) correspondent à des sous-groupes chimiques, pharmacologiques ou thérapeutiques. Le cinquième et dernier niveau (deux derniers chiffres) indique la substance chimique[1].
-En principe, une molécule unique a un code ATC unique. Cependant, lorsqu'une même molécule est disponible pour différentes voies d'administration topiques, elle dispose d'autant de codes ATC différents. En outre, des molécules qui ont plusieurs indications principales peuvent parfois avoir plusieurs codes correspondants[1].
+Le premier niveau (première lettre) définit le groupe anatomique parmi 14 différents. Le deuxième niveau (deux premiers chiffres) donne le sous-groupe pharmacologique ou thérapeutique principal. Les troisième et quatrième niveaux (deuxième et troisième lettres) correspondent à des sous-groupes chimiques, pharmacologiques ou thérapeutiques. Le cinquième et dernier niveau (deux derniers chiffres) indique la substance chimique.
+En principe, une molécule unique a un code ATC unique. Cependant, lorsqu'une même molécule est disponible pour différentes voies d'administration topiques, elle dispose d'autant de codes ATC différents. En outre, des molécules qui ont plusieurs indications principales peuvent parfois avoir plusieurs codes correspondants.
 </t>
         </is>
       </c>
@@ -546,15 +560,51 @@
           <t>Classifications associées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système ATC/DDD[2] est le système ATC auquel on a ajouté une mesure de la dose d'entretien quotidienne moyenne supposée pour un médicament utilisé dans son indication principale pour un adulte (Defined Daily Doses : « dose quotidienne définie »).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le système ATC/DDD est le système ATC auquel on a ajouté une mesure de la dose d'entretien quotidienne moyenne supposée pour un médicament utilisé dans son indication principale pour un adulte (Defined Daily Doses : « dose quotidienne définie »).
 D'autres classifications ATC sont :
 ATCvet (pour les produits médicaux vétérinaires) ;
-ATC Herbal Classification (pour les herbes médicinales).
-ATCvet
-La Classification anatomique, thérapeutique et chimique pour produits médicaux vétérinaires (ATCvet) est utilisée pour classer le médicament à usage vétérinaire[3]. Les codes ATCvet peuvent être créés en plaçant la lettre Q en tête du code ATC code de la plupart des médicaments utilisés en médecine humaine. Par exemple, le furosémide à usage vétérinaire a pour code QC03CA01.
-Certains codes sont à usage vétérinaire uniquement, comme le « QI : Immunologiques », « QJ51 : Antibactériens pour une utilisation intra-mammaire » ou « QN05AX90 : ampérozide »[4].
+ATC Herbal Classification (pour les herbes médicinales).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_ATC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_ATC</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classifications associées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ATCvet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Classification anatomique, thérapeutique et chimique pour produits médicaux vétérinaires (ATCvet) est utilisée pour classer le médicament à usage vétérinaire. Les codes ATCvet peuvent être créés en plaçant la lettre Q en tête du code ATC code de la plupart des médicaments utilisés en médecine humaine. Par exemple, le furosémide à usage vétérinaire a pour code QC03CA01.
+Certains codes sont à usage vétérinaire uniquement, comme le « QI : Immunologiques », « QJ51 : Antibactériens pour une utilisation intra-mammaire » ou « QN05AX90 : ampérozide ».
 </t>
         </is>
       </c>
